--- a/matlab/original/images/Zeroestable.xlsx
+++ b/matlab/original/images/Zeroestable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Degree</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Line</t>
   </si>
 </sst>
 </file>
@@ -414,11 +417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-545742480"/>
-        <c:axId val="-547347616"/>
+        <c:axId val="-1904981024"/>
+        <c:axId val="-1904978960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-545742480"/>
+        <c:axId val="-1904981024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-547347616"/>
+        <c:crossAx val="-1904978960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -528,7 +531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-547347616"/>
+        <c:axId val="-1904978960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-545742480"/>
+        <c:crossAx val="-1904981024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,11 +1039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-545733760"/>
-        <c:axId val="-545731280"/>
+        <c:axId val="-1905978272"/>
+        <c:axId val="-1905974512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-545733760"/>
+        <c:axId val="-1905978272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-545731280"/>
+        <c:crossAx val="-1905974512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1150,7 +1153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-545731280"/>
+        <c:axId val="-1905974512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-545733760"/>
+        <c:crossAx val="-1905978272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1653,6 +1656,104 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3n+3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1663,11 +1764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-506116512"/>
-        <c:axId val="-506114448"/>
+        <c:axId val="-1904948336"/>
+        <c:axId val="-1904944576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-506116512"/>
+        <c:axId val="-1904948336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1769,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-506114448"/>
+        <c:crossAx val="-1904944576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1777,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-506114448"/>
+        <c:axId val="-1904944576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +2002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-506116512"/>
+        <c:crossAx val="-1904948336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3969,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,7 +4084,7 @@
     <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3997,8 +4098,11 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -4019,7 +4123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -4043,8 +4147,12 @@
         <f>E3+F3</f>
         <v>2</v>
       </c>
+      <c r="H3">
+        <f>3*A3 + 3</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4068,8 +4176,12 @@
         <f t="shared" ref="G4:G21" si="1">E4+F4</f>
         <v>7</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="2">3*A4 + 3</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -4093,8 +4205,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -4118,8 +4234,12 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -4143,8 +4263,12 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -4168,8 +4292,12 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -4193,8 +4321,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -4218,8 +4350,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -4243,8 +4379,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -4268,8 +4408,12 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -4293,8 +4437,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -4318,8 +4466,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -4343,8 +4495,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -4368,8 +4524,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4393,8 +4553,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -4418,8 +4582,12 @@
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -4443,8 +4611,12 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -4468,8 +4640,12 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -4492,6 +4668,10 @@
       <c r="G21" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/original/images/Zeroestable.xlsx
+++ b/matlab/original/images/Zeroestable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,11 +417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1904981024"/>
-        <c:axId val="-1904978960"/>
+        <c:axId val="-1050994720"/>
+        <c:axId val="-1091394528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1904981024"/>
+        <c:axId val="-1050994720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904978960"/>
+        <c:crossAx val="-1091394528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,7 +531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1904978960"/>
+        <c:axId val="-1091394528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904981024"/>
+        <c:crossAx val="-1050994720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1039,11 +1039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1905978272"/>
-        <c:axId val="-1905974512"/>
+        <c:axId val="-1091380768"/>
+        <c:axId val="-1091378912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1905978272"/>
+        <c:axId val="-1091380768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905974512"/>
+        <c:crossAx val="-1091378912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1153,7 +1153,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1905974512"/>
+        <c:axId val="-1091378912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1905978272"/>
+        <c:crossAx val="-1091380768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,11 +1764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1904948336"/>
-        <c:axId val="-1904944576"/>
+        <c:axId val="-1056323024"/>
+        <c:axId val="-1056319264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1904948336"/>
+        <c:axId val="-1056323024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904944576"/>
+        <c:crossAx val="-1056319264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1878,7 +1878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1904944576"/>
+        <c:axId val="-1056319264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1904948336"/>
+        <c:crossAx val="-1056323024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4072,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4089,12 +4089,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
